--- a/Assets/StreamingAssets/Excel/Skills.xlsx
+++ b/Assets/StreamingAssets/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Guild\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CD9F2-F8F2-4995-A76E-55B17941DFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78022D-CBF3-40F7-9CD5-E2846AEC266B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B91B7DC-4244-4A29-96BE-4A7A6416D8BD}"/>
   </bookViews>
@@ -83,11 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Skill/hukan/huikan_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Huikan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Skill/huikan/huikan_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Skills.xlsx
+++ b/Assets/StreamingAssets/Excel/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Guild\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78022D-CBF3-40F7-9CD5-E2846AEC266B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB2105-1D3F-42E6-A3C5-8EB8DA14715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B91B7DC-4244-4A29-96BE-4A7A6416D8BD}"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="21192" windowHeight="12360" xr2:uid="{6B91B7DC-4244-4A29-96BE-4A7A6416D8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huikan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Skill/huikan/huikan_3</t>
+    <t>Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Skill/Slash/Slash_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
